--- a/LF/ITAS/sn_lf_itas_20305_2_fts.xlsx
+++ b/LF/ITAS/sn_lf_itas_20305_2_fts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\ITAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6619DC52-2852-42D1-9A8F-08B1A11399CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD8CD61-738D-4BB2-922D-840E84F1011E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,9 +457,6 @@
   </si>
   <si>
     <t>18. Notes supplémentaires</t>
-  </si>
-  <si>
-    <t>if(${d_IDType} = 'Scanner', concat(${d_BarcodeID}),concat( ${d_manual_code_id}))</t>
   </si>
   <si>
     <t>. = ${d_manual_code_id}</t>
@@ -488,6 +485,9 @@
   </si>
   <si>
     <t>repeat_count</t>
+  </si>
+  <si>
+    <t>if(${d_IDType} = 'Scanner', concat(${d_BarcodeID}),concat(${d_recorderID}, '_', ${d_cluster_id}, '_',  ${d_manual_code_id}))</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1082,10 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1150,7 +1150,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="11" customFormat="1" ht="63">
@@ -1469,7 +1469,7 @@
       <c r="D15" s="16"/>
       <c r="E15" s="14"/>
       <c r="F15" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>106</v>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="26" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>19</v>
@@ -1808,7 +1808,7 @@
       <c r="G28" s="19"/>
       <c r="H28" s="13"/>
       <c r="I28" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>89</v>

--- a/LF/ITAS/sn_lf_itas_20305_2_fts.xlsx
+++ b/LF/ITAS/sn_lf_itas_20305_2_fts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\ITAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD8CD61-738D-4BB2-922D-840E84F1011E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD3B8C7-C4DA-4A1B-BF5B-C90E8F327DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="158">
   <si>
     <t>type</t>
   </si>
@@ -129,9 +129,6 @@
     <t>d_BarcodeID</t>
   </si>
   <si>
-    <t>${d_IDType} = "Scanner"</t>
-  </si>
-  <si>
     <t>d_lotnumber1</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>d_result2</t>
   </si>
   <si>
-    <t>d_display_result2</t>
-  </si>
-  <si>
     <t>d_final_result</t>
   </si>
   <si>
@@ -237,42 +231,18 @@
     <t>Négatif</t>
   </si>
   <si>
-    <t>Absence.de.ligne.temoin/controle</t>
-  </si>
-  <si>
     <t>Absence de ligne témoin/contrôle</t>
   </si>
   <si>
-    <t>Ligne.temoin.discontinue/partielle</t>
-  </si>
-  <si>
     <t>Ligne témoin discontinue/partielle</t>
   </si>
   <si>
-    <t>Difficulte.d.absorption.d.echantillon</t>
-  </si>
-  <si>
     <t>Difficulté d’absorption d’échantillon</t>
   </si>
   <si>
-    <t>Difficulte.de.migration.d.echantillon</t>
-  </si>
-  <si>
     <t>Difficulté de migration d’échantillon</t>
   </si>
   <si>
-    <t>Trace.de.sang.persiste.(sang.reste.sur.la.bandelette/a.obscurci.les.lignes)</t>
-  </si>
-  <si>
-    <t>Trace de sang persiste (sang resté sur la bandelette/a obscurci les lignes)</t>
-  </si>
-  <si>
-    <t>Insuffisance.du.volume.de.sang.du.a.la.pipette</t>
-  </si>
-  <si>
-    <t>Insuffisance du volume de sang dû à la pipette</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -291,9 +261,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>sn_lf_itas_20305_2_fts</t>
-  </si>
-  <si>
     <t>Manuel</t>
   </si>
   <si>
@@ -333,9 +300,6 @@
     <t>why_Invalid</t>
   </si>
   <si>
-    <t>${d_IDType} = "Manuel"</t>
-  </si>
-  <si>
     <t>d_manual_code_id</t>
   </si>
   <si>
@@ -372,9 +336,6 @@
     <t>d_code_id</t>
   </si>
   <si>
-    <t>sn_lf_f_2405</t>
-  </si>
-  <si>
     <t>end repeat</t>
   </si>
   <si>
@@ -429,40 +390,10 @@
     <t>8.c. Veuiller enregistrer le code d'identification unique du participant qui apparait sur une liste séparée et sur chaque test de diagnostic administré</t>
   </si>
   <si>
-    <t>9. Veuiller entrer le numéro de lot FTS 1</t>
-  </si>
-  <si>
-    <t>10. FTS - Test 1</t>
-  </si>
-  <si>
-    <t>11. Donner la raison du test Invalide</t>
-  </si>
-  <si>
     <t>12. Donner la raison du test Invalide</t>
   </si>
   <si>
-    <t>13 .Le premier résultat du test de ce participant est ${d_display_result1}. Ce résultat nécessite un deuxième test. Continuez ce questionnaire pour entrer le deuxième résultat du test du participant.</t>
-  </si>
-  <si>
-    <t>14. Veuiller entrer le numéro de lot FTS 2</t>
-  </si>
-  <si>
-    <t>15. FTS - Test 2</t>
-  </si>
-  <si>
-    <t>16. Donnez la raison du test Invalide</t>
-  </si>
-  <si>
-    <t>17. Donnez la raison du test Invalide</t>
-  </si>
-  <si>
-    <t>18. Notes supplémentaires</t>
-  </si>
-  <si>
     <t>. = ${d_manual_code_id}</t>
-  </si>
-  <si>
-    <t>(2024 Mai) 2. ITAS - Formulaire Résultat FTS</t>
   </si>
   <si>
     <t>if(${d_result1}="Positif" and ${d_result2}="Positif", "Positif",
@@ -487,7 +418,102 @@
     <t>repeat_count</t>
   </si>
   <si>
-    <t>if(${d_IDType} = 'Scanner', concat(${d_BarcodeID}),concat(${d_recorderID}, '_', ${d_cluster_id}, '_',  ${d_manual_code_id}))</t>
+    <t>${d_IDType} = "Scanner" and ${d_eu_name} = 'SARAYA'</t>
+  </si>
+  <si>
+    <t>${d_eu_name} = 'SARAYA'</t>
+  </si>
+  <si>
+    <t>${d_IDType} = "Manuel" or ${d_eu_name} != 'SARAYA'</t>
+  </si>
+  <si>
+    <t>if(${d_IDType} = 'Scanner', concat(${d_BarcodeID}),
+    if(${d_eu_name} = 'SARAYA', ${d_manual_code_id},  concat(${d_recorderID}, '_', ${d_cluster_id}, '_', ${d_manual_code_id}))
+)</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>d_dbs_collect</t>
+  </si>
+  <si>
+    <t>9. Est-ce que le DBS pour l'enfant a été pris?</t>
+  </si>
+  <si>
+    <t>10. Veuiller entrer le numéro de lot FTS 1</t>
+  </si>
+  <si>
+    <t>11. FTS - Test 1</t>
+  </si>
+  <si>
+    <t>13. Donner la raison du test Invalide</t>
+  </si>
+  <si>
+    <t>18. Donnez la raison du test Invalide</t>
+  </si>
+  <si>
+    <t>Trace de solution éludé</t>
+  </si>
+  <si>
+    <t>Insuffisance du volume de la solution éludé dû à la pipette</t>
+  </si>
+  <si>
+    <t>Absence.de.ligne.témoin/contrôle</t>
+  </si>
+  <si>
+    <t>Ligne.témoin.discontinue/partielle</t>
+  </si>
+  <si>
+    <t>Difficulté.d’absorption.d’échantillon</t>
+  </si>
+  <si>
+    <t>Difficulté.de.migration.d’échantillon</t>
+  </si>
+  <si>
+    <t>Trace.de.solution.éludé</t>
+  </si>
+  <si>
+    <t>Insuffisance.du.volume.de.la.solution.éludé.dû.à.la.pipette</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>d_photo_1</t>
+  </si>
+  <si>
+    <t>14. Prener la photp du Test 1 Invalide</t>
+  </si>
+  <si>
+    <t>d_photo_2</t>
+  </si>
+  <si>
+    <t>15.Le premier résultat du test de ce participant est ${d_display_result1}. Ce résultat nécessite un deuxième test. Continuez ce questionnaire pour entrer le deuxième résultat du test du participant.</t>
+  </si>
+  <si>
+    <t>16. Veuiller entrer le numéro de lot FTS 2</t>
+  </si>
+  <si>
+    <t>17. FTS - Test 2</t>
+  </si>
+  <si>
+    <t>19. Donnez la raison du test Invalide</t>
+  </si>
+  <si>
+    <t>20. Prener la photp du Test 2 Invalide</t>
+  </si>
+  <si>
+    <t>21. Notes supplémentaires</t>
+  </si>
+  <si>
+    <t>(2024 Mai) 2. ITAS - Formulaire Résultat FTS V3</t>
+  </si>
+  <si>
+    <t>sn_lf_itas_20305_2_fts_v3</t>
+  </si>
+  <si>
+    <t>sn_lf_f_2405_v3</t>
   </si>
 </sst>
 </file>
@@ -702,9 +728,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -797,6 +820,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,667 +1105,665 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="47.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="47.375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="29.5" style="20" customWidth="1"/>
-    <col min="8" max="8" width="49.375" style="23" customWidth="1"/>
-    <col min="9" max="9" width="40.875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="20" customWidth="1"/>
-    <col min="11" max="11" width="35.375" style="20" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="20" customWidth="1"/>
-    <col min="13" max="13" width="36.625" style="20" customWidth="1"/>
-    <col min="14" max="16384" width="11" style="20"/>
+    <col min="1" max="1" width="23.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="47.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="47.375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="19" customWidth="1"/>
+    <col min="8" max="8" width="49.375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="40.875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="19" customWidth="1"/>
+    <col min="11" max="11" width="35.375" style="19" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="19" customWidth="1"/>
+    <col min="13" max="13" width="36.625" style="19" customWidth="1"/>
+    <col min="14" max="16384" width="11" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" ht="18.75">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="18.75">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" ht="63">
-      <c r="A2" s="13" t="s">
+      <c r="O1" s="38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="10" customFormat="1" ht="63">
+      <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" s="10" customFormat="1">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" s="10" customFormat="1">
+      <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="10" customFormat="1">
+      <c r="A5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="10" customFormat="1" ht="31.5">
+      <c r="A6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" customFormat="1">
+      <c r="A7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="3" customFormat="1">
+      <c r="A8" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" s="3" customFormat="1">
+      <c r="A9" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="O9" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="3" customFormat="1">
+      <c r="A10" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="35"/>
+    </row>
+    <row r="11" spans="1:15" s="3" customFormat="1" ht="31.5">
+      <c r="A11" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="35"/>
+    </row>
+    <row r="12" spans="1:15" s="10" customFormat="1" ht="31.5">
+      <c r="A12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" s="10" customFormat="1">
+      <c r="A13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" s="10" customFormat="1">
+      <c r="A14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:15" s="10" customFormat="1" ht="25.5">
+      <c r="A15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:15" s="11" customFormat="1">
-      <c r="A3" s="13" t="s">
+      <c r="G15" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:15" s="10" customFormat="1" ht="94.5">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:15" s="11" customFormat="1">
-      <c r="A4" s="13" t="s">
+      <c r="B16" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="10" customFormat="1">
+      <c r="A17" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" s="10" customFormat="1">
+      <c r="A18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="11" customFormat="1">
-      <c r="A5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="11" customFormat="1" ht="31.5">
-      <c r="A6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" customFormat="1">
-      <c r="A7" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="3" customFormat="1">
-      <c r="A8" s="30" t="s">
+      <c r="B18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" s="10" customFormat="1">
+      <c r="A19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" s="10" customFormat="1">
+      <c r="A20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" s="10" customFormat="1">
+      <c r="A21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" s="10" customFormat="1">
+      <c r="A22" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" s="10" customFormat="1">
+      <c r="A23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-    </row>
-    <row r="9" spans="1:15" s="3" customFormat="1">
-      <c r="A9" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="O9" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="3" customFormat="1">
-      <c r="A10" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="36"/>
-    </row>
-    <row r="11" spans="1:15" s="3" customFormat="1" ht="31.5">
-      <c r="A11" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="36"/>
-    </row>
-    <row r="12" spans="1:15" s="11" customFormat="1" ht="31.5">
-      <c r="A12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:15" s="11" customFormat="1">
-      <c r="A13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:15" s="11" customFormat="1">
-      <c r="A14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:15" s="11" customFormat="1" ht="25.5">
-      <c r="A15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:15" s="11" customFormat="1" ht="47.25">
-      <c r="A16" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="26" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" s="10" customFormat="1" ht="63">
+      <c r="A24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="J16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="11" customFormat="1">
-      <c r="A17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" s="11" customFormat="1">
-      <c r="A18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" s="11" customFormat="1">
-      <c r="A19" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-    </row>
-    <row r="20" spans="1:13" s="11" customFormat="1">
-      <c r="A20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-    </row>
-    <row r="21" spans="1:13" s="11" customFormat="1">
-      <c r="A21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-    </row>
-    <row r="22" spans="1:13" s="11" customFormat="1" ht="63">
-      <c r="A22" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" s="11" customFormat="1">
-      <c r="A23" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>41</v>
-      </c>
+      <c r="D24" s="17"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="14" t="s">
-        <v>91</v>
+      <c r="G24" s="17"/>
+      <c r="H24" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="I24" s="12"/>
-      <c r="J24" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="19"/>
+    <row r="25" spans="1:13" s="10" customFormat="1">
+      <c r="A25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="18"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="14" t="s">
-        <v>93</v>
+      <c r="F25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="I25" s="12"/>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="12" t="s">
         <v>19</v>
       </c>
       <c r="K25" s="12"/>
@@ -1747,184 +1771,238 @@
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="1:13" s="10" customFormat="1">
+      <c r="A29" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" ht="162.75" customHeight="1">
+      <c r="A30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="12" t="s">
+      <c r="B30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="1:13" s="22" customFormat="1">
+      <c r="A31" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="1:13" ht="162.75" customHeight="1">
-      <c r="A28" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="12" t="s">
+      <c r="C31" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="1:13" s="23" customFormat="1">
-      <c r="A29" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="21" t="s">
+      <c r="D31" s="21"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C33" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" s="3" customFormat="1">
+      <c r="A34" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="13"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="12" t="s">
+      <c r="B35" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-    </row>
-    <row r="32" spans="1:13" s="3" customFormat="1">
-      <c r="A32" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
+      <c r="B36" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1938,19 +2016,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B9:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="60.375" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="61" style="19" customWidth="1"/>
+    <col min="3" max="3" width="60.375" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1959,167 +2038,167 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B2" s="19" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" s="19" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="C4" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="B7" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C7" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="20" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C15" s="19" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2136,35 +2215,36 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="44.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="19" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
+      <c r="A2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/LF/ITAS/sn_lf_itas_20305_2_fts.xlsx
+++ b/LF/ITAS/sn_lf_itas_20305_2_fts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\ITAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD3B8C7-C4DA-4A1B-BF5B-C90E8F327DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DA75A6-EB3B-4B48-8F2C-2CA52F8088DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -453,30 +453,6 @@
     <t>18. Donnez la raison du test Invalide</t>
   </si>
   <si>
-    <t>Trace de solution éludé</t>
-  </si>
-  <si>
-    <t>Insuffisance du volume de la solution éludé dû à la pipette</t>
-  </si>
-  <si>
-    <t>Absence.de.ligne.témoin/contrôle</t>
-  </si>
-  <si>
-    <t>Ligne.témoin.discontinue/partielle</t>
-  </si>
-  <si>
-    <t>Difficulté.d’absorption.d’échantillon</t>
-  </si>
-  <si>
-    <t>Difficulté.de.migration.d’échantillon</t>
-  </si>
-  <si>
-    <t>Trace.de.solution.éludé</t>
-  </si>
-  <si>
-    <t>Insuffisance.du.volume.de.la.solution.éludé.dû.à.la.pipette</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -514,6 +490,30 @@
   </si>
   <si>
     <t>sn_lf_f_2405_v3</t>
+  </si>
+  <si>
+    <t>Absence.de.ligne.temoin/controle</t>
+  </si>
+  <si>
+    <t>Ligne.temoin.discontinue/partielle</t>
+  </si>
+  <si>
+    <t>Difficulte.d.absorption.d.echantillon</t>
+  </si>
+  <si>
+    <t>Difficulte.de.migration.d.echantillon</t>
+  </si>
+  <si>
+    <t>Trace.de.sang.persiste.(sang.reste.sur.la.bandelette/a.obscurci.les.lignes)</t>
+  </si>
+  <si>
+    <t>Trace de sang persiste (sang resté sur la bandelette/a obscurci les lignes)</t>
+  </si>
+  <si>
+    <t>Insuffisance.du.volume.de.sang.du.a.la.pipette</t>
+  </si>
+  <si>
+    <t>Insuffisance du volume de sang dû à la pipette</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1351,7 +1351,7 @@
         <v>96</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>116</v>
@@ -1672,13 +1672,13 @@
     </row>
     <row r="22" spans="1:13" s="10" customFormat="1">
       <c r="A22" s="12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="12"/>
@@ -1726,7 +1726,7 @@
         <v>46</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="12"/>
@@ -1749,7 +1749,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="12"/>
@@ -1778,7 +1778,7 @@
         <v>48</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>40</v>
@@ -1830,7 +1830,7 @@
         <v>89</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="11"/>
@@ -1849,13 +1849,13 @@
     </row>
     <row r="29" spans="1:13" s="10" customFormat="1">
       <c r="A29" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>153</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="12"/>
@@ -1937,7 +1937,7 @@
         <v>52</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="11"/>
@@ -2014,9 +2014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B9:B14"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2129,7 +2129,7 @@
         <v>91</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>69</v>
@@ -2140,7 +2140,7 @@
         <v>91</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>70</v>
@@ -2151,7 +2151,7 @@
         <v>91</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>71</v>
@@ -2162,7 +2162,7 @@
         <v>91</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>72</v>
@@ -2173,10 +2173,10 @@
         <v>91</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2184,10 +2184,10 @@
         <v>91</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2238,10 +2238,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>78</v>

--- a/LF/ITAS/sn_lf_itas_20305_2_fts.xlsx
+++ b/LF/ITAS/sn_lf_itas_20305_2_fts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\ITAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DA75A6-EB3B-4B48-8F2C-2CA52F8088DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1950561C-0D56-45B2-A038-A1E2B666E1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="160">
   <si>
     <t>type</t>
   </si>
@@ -483,15 +483,6 @@
     <t>21. Notes supplémentaires</t>
   </si>
   <si>
-    <t>(2024 Mai) 2. ITAS - Formulaire Résultat FTS V3</t>
-  </si>
-  <si>
-    <t>sn_lf_itas_20305_2_fts_v3</t>
-  </si>
-  <si>
-    <t>sn_lf_f_2405_v3</t>
-  </si>
-  <si>
     <t>Absence.de.ligne.temoin/controle</t>
   </si>
   <si>
@@ -514,6 +505,21 @@
   </si>
   <si>
     <t>Insuffisance du volume de sang dû à la pipette</t>
+  </si>
+  <si>
+    <t>Le format du QR Code est incorrect. Exemple SENITAS1234</t>
+  </si>
+  <si>
+    <t>if(${d_eu_name} = 'SARAYA', regex(., '^(SENITAS)\d{4}$'), true())</t>
+  </si>
+  <si>
+    <t>sn_lf_f_2405_v4</t>
+  </si>
+  <si>
+    <t>(2024 Mai) 2. ITAS - Formulaire Résultat FTS V4</t>
+  </si>
+  <si>
+    <t>sn_lf_itas_20305_2_fts_v4</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1357,7 @@
         <v>96</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>116</v>
@@ -1459,7 +1465,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:15" s="10" customFormat="1">
+    <row r="14" spans="1:15" s="10" customFormat="1" ht="51">
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
@@ -1471,8 +1477,12 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="H14" s="13" t="s">
         <v>128</v>
       </c>
@@ -2014,7 +2024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9:C14"/>
     </sheetView>
@@ -2129,7 +2139,7 @@
         <v>91</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>69</v>
@@ -2140,7 +2150,7 @@
         <v>91</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>70</v>
@@ -2151,7 +2161,7 @@
         <v>91</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>71</v>
@@ -2162,7 +2172,7 @@
         <v>91</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>72</v>
@@ -2173,10 +2183,10 @@
         <v>91</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2184,10 +2194,10 @@
         <v>91</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2214,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2238,10 +2248,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>78</v>
